--- a/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
+++ b/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\09_이미지처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1429F1-52BD-4086-A179-B3736CA659C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706413C4-A191-4D98-8362-91FD534F57DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="675" windowWidth="17280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컨볼루션" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>

--- a/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
+++ b/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\09_이미지처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\09_이미지처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706413C4-A191-4D98-8362-91FD534F57DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="675" windowWidth="17280" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="675" windowWidth="17280" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="컨볼루션" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -262,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,24 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +347,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,21 +634,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.65" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="17" max="17" width="2.3984375" customWidth="1"/>
     <col min="18" max="18" width="1.8984375" customWidth="1"/>
     <col min="19" max="19" width="2.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -681,23 +668,23 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="28"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A2" s="8"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -745,7 +732,7 @@
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="U2" s="29"/>
+      <c r="U2" s="23"/>
       <c r="V2" s="5">
         <v>1</v>
       </c>
@@ -785,9 +772,9 @@
       <c r="AH2" s="3">
         <v>1</v>
       </c>
-      <c r="AI2" s="32"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI2" s="26"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -809,7 +796,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="U3" s="29"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="8">
         <v>1</v>
       </c>
@@ -829,9 +816,9 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="12"/>
-      <c r="AI3" s="32"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI3" s="26"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -849,7 +836,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="9"/>
-      <c r="U4" s="29"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="8">
         <v>1</v>
       </c>
@@ -869,9 +856,9 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="12"/>
-      <c r="AI4" s="32"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI4" s="26"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -892,7 +879,7 @@
       <c r="Q5" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="29"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="10">
         <v>1</v>
       </c>
@@ -912,9 +899,9 @@
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="12"/>
-      <c r="AI5" s="32"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI5" s="26"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A6" s="8"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -946,7 +933,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="9"/>
-      <c r="U6" s="29"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="10">
         <v>1</v>
       </c>
@@ -980,9 +967,9 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="12"/>
-      <c r="AI6" s="32"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI6" s="26"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1002,7 +989,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="9"/>
-      <c r="U7" s="29"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="10"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -1024,9 +1011,9 @@
         <v>1</v>
       </c>
       <c r="AH7" s="12"/>
-      <c r="AI7" s="32"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI7" s="26"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1044,7 +1031,7 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="9"/>
-      <c r="U8" s="29"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -1064,9 +1051,9 @@
       <c r="AH8" s="12">
         <v>1</v>
       </c>
-      <c r="AI8" s="32"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI8" s="26"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1084,7 +1071,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="9"/>
-      <c r="U9" s="29"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -1104,9 +1091,9 @@
       <c r="AH9" s="12">
         <v>1</v>
       </c>
-      <c r="AI9" s="32"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI9" s="26"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1124,7 +1111,7 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="9"/>
-      <c r="U10" s="29"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="10"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -1144,9 +1131,9 @@
       <c r="AH10" s="12">
         <v>1</v>
       </c>
-      <c r="AI10" s="32"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI10" s="26"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1164,7 +1151,7 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="9"/>
-      <c r="U11" s="29"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="10"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -1184,9 +1171,9 @@
       <c r="AH11" s="12">
         <v>1</v>
       </c>
-      <c r="AI11" s="32"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI11" s="26"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1204,7 +1191,7 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="9"/>
-      <c r="U12" s="29"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="10"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -1224,9 +1211,9 @@
       <c r="AH12" s="12">
         <v>1</v>
       </c>
-      <c r="AI12" s="32"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI12" s="26"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1244,7 +1231,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="9"/>
-      <c r="U13" s="29"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="10"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -1264,9 +1251,9 @@
         <v>1</v>
       </c>
       <c r="AH13" s="9"/>
-      <c r="AI13" s="32"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI13" s="26"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1300,7 +1287,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="9"/>
-      <c r="U14" s="30"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="13">
         <v>1</v>
       </c>
@@ -1336,9 +1323,9 @@
       </c>
       <c r="AG14" s="14"/>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="32"/>
-    </row>
-    <row r="15" spans="1:35" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI14" s="26"/>
+    </row>
+    <row r="15" spans="1:35" ht="21" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1354,21 +1341,21 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="18"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="33"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1378,78 +1365,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B80E7-041B-4DBF-8510-E17F0CF596F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="20.65" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="13" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="2.3984375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="19">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20">
-        <v>2</v>
-      </c>
-      <c r="C1" s="20">
-        <v>3</v>
-      </c>
-      <c r="D1" s="20">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20">
-        <v>3</v>
-      </c>
-      <c r="F1" s="20">
-        <v>3</v>
-      </c>
-      <c r="G1" s="20">
-        <v>3</v>
-      </c>
-      <c r="H1" s="20">
-        <v>3</v>
-      </c>
-      <c r="I1" s="20">
-        <v>3</v>
-      </c>
-      <c r="J1" s="20">
-        <v>3</v>
-      </c>
-      <c r="K1" s="20">
-        <v>3</v>
-      </c>
-      <c r="L1" s="20">
-        <v>2</v>
-      </c>
-      <c r="M1" s="23">
-        <v>1</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2</v>
-      </c>
-      <c r="P1" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>3</v>
-      </c>
-      <c r="R1" s="4">
-        <v>3</v>
-      </c>
-      <c r="S1" s="4">
-        <v>3</v>
-      </c>
-      <c r="T1" s="4">
-        <v>3</v>
-      </c>
-      <c r="U1" s="4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4">
+        <v>1</v>
+      </c>
+      <c r="O1" s="29">
+        <v>2</v>
+      </c>
+      <c r="P1" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>3</v>
+      </c>
+      <c r="R1" s="29">
+        <v>3</v>
+      </c>
+      <c r="S1" s="29">
+        <v>3</v>
+      </c>
+      <c r="T1" s="29">
+        <v>3</v>
+      </c>
+      <c r="U1" s="29">
         <v>2</v>
       </c>
       <c r="V1" s="4"/>
@@ -1458,29 +1445,40 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="30">
+        <v>1</v>
+      </c>
+      <c r="P2" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -1498,249 +1496,338 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="14">
-        <v>3</v>
-      </c>
-      <c r="E13" s="14">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
-      <c r="H13" s="14">
-        <v>3</v>
-      </c>
-      <c r="I13" s="14">
-        <v>3</v>
-      </c>
-      <c r="J13" s="14">
-        <v>2</v>
-      </c>
-      <c r="K13" s="14">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="30">
+        <v>2</v>
+      </c>
+      <c r="P3" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>3</v>
+      </c>
+      <c r="R3" s="29">
+        <v>3</v>
+      </c>
+      <c r="S3" s="29">
+        <v>2</v>
+      </c>
+      <c r="T3" s="29">
+        <v>2</v>
+      </c>
+      <c r="U3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30">
+        <v>1</v>
+      </c>
+      <c r="U4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30">
+        <v>1</v>
+      </c>
+      <c r="U5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30">
+        <v>1</v>
+      </c>
+      <c r="T6" s="30">
+        <v>1</v>
+      </c>
+      <c r="U6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="30">
+        <v>2</v>
+      </c>
+      <c r="P7" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>3</v>
+      </c>
+      <c r="R7" s="30">
+        <v>3</v>
+      </c>
+      <c r="S7" s="30">
+        <v>3</v>
+      </c>
+      <c r="T7" s="30">
+        <v>1</v>
+      </c>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.7">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
+++ b/lecNote/09_이미지처리/1220_컨볼루션5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\09_이미지처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\09_이미지처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39384031-A9B2-48C6-8C68-AE3546AB63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="675" windowWidth="17280" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컨볼루션" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -634,21 +635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.65" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="17" max="17" width="2.3984375" customWidth="1"/>
     <col min="18" max="18" width="1.8984375" customWidth="1"/>
     <col min="19" max="19" width="2.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -684,7 +685,7 @@
       <c r="AH1" s="21"/>
       <c r="AI1" s="22"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -774,7 +775,7 @@
       </c>
       <c r="AI2" s="26"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -818,7 +819,7 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="26"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -858,7 +859,7 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="26"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -901,7 +902,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="26"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -969,7 +970,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="26"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1013,7 +1014,7 @@
       <c r="AH7" s="12"/>
       <c r="AI7" s="26"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="AI8" s="26"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1093,7 +1094,7 @@
       </c>
       <c r="AI9" s="26"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="AI10" s="26"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1173,7 +1174,7 @@
       </c>
       <c r="AI11" s="26"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="AI12" s="26"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1253,7 +1254,7 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="26"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1325,7 +1326,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="26"/>
     </row>
-    <row r="15" spans="1:35" ht="21" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1365,20 +1366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.65" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="13" width="2.3984375" bestFit="1" customWidth="1"/>
     <col min="15" max="26" width="2.3984375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -1445,7 +1446,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1477,7 +1478,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1633,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1673,7 +1674,7 @@
       </c>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1701,7 +1702,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1729,7 +1730,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1750,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1771,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1792,7 +1793,7 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1</v>
       </c>
